--- a/ResourceLibrary/Documents/EnrollmentProtocol.xlsx
+++ b/ResourceLibrary/Documents/EnrollmentProtocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Евгений Маковенко\Desktop\Job\Rubin\ResourceLibrary\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16176" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Ф.И.О.</t>
   </si>
   <si>
-    <t>Физика</t>
-  </si>
-  <si>
     <t>Математика</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>[Title]</t>
   </si>
   <si>
-    <t>В соответствии с "Правилами приёма в АлтГТУ в 2017 году" на основании вступительных испытаний и конкурсного отбора</t>
-  </si>
-  <si>
     <t>РЕШИЛИ:</t>
   </si>
   <si>
@@ -81,6 +75,12 @@
   </si>
   <si>
     <t>Декан факультета</t>
+  </si>
+  <si>
+    <t>Обществознание</t>
+  </si>
+  <si>
+    <t>В соответствии с "Правилами приёма в АлтГТУ в 2018 году" на основании вступительных испытаний и конкурсного отбора</t>
   </si>
 </sst>
 </file>
@@ -172,16 +172,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -467,132 +467,132 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J15"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="1" customWidth="1"/>
-    <col min="3" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,31 +600,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -636,74 +636,79 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A7:J7"/>
@@ -712,11 +717,6 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/ResourceLibrary/Documents/EnrollmentProtocol.xlsx
+++ b/ResourceLibrary/Documents/EnrollmentProtocol.xlsx
@@ -77,10 +77,10 @@
     <t>Декан факультета</t>
   </si>
   <si>
-    <t>Обществознание</t>
-  </si>
-  <si>
     <t>В соответствии с "Правилами приёма в АлтГТУ в 2018 году" на основании вступительных испытаний и конкурсного отбора</t>
+  </si>
+  <si>
+    <t>Физика</t>
   </si>
 </sst>
 </file>
@@ -172,6 +172,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -180,9 +183,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +467,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -485,112 +485,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -637,78 +637,73 @@
       <c r="J10" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A7:J7"/>
@@ -717,6 +712,11 @@
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
